--- a/AR.xlsx
+++ b/AR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F7137-AC59-43C2-A688-CB3C4100B97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CF784-7C19-4F42-B2C2-DB024DB13868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{F8051C5A-2504-4AFC-AAC9-4928D6AF8FAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F8051C5A-2504-4AFC-AAC9-4928D6AF8FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>MIN_MATCHES</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mặc dù thời gian chạy của sift và surf lâu hơn nhưng khi thử nghiệm thấy mô hình ít giật hơn nên nhóm chọn Detector: SIFT và Matching: Flann </t>
   </si>
   <si>
     <t>Time (ms)</t>
@@ -158,10 +155,10 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,7 +229,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> gian chạy của phương pháp matching FLANN </a:t>
+              <a:t> gian chạy của phương pháp matching FLANN với các phương pháp rút trích đặc trưng</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:solidFill>
@@ -646,7 +643,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> gian chạy của phương pháp matching BF </a:t>
+              <a:t> gian chạy của phương pháp matching BF với các phương pháp rút trích đặc trưng </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2514,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87871C53-89AC-4385-A3FE-D0860B2262CA}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="93" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,15 +2532,15 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -2551,13 +2548,13 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="2">
         <v>23</v>
       </c>
@@ -2569,11 +2566,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="2">
         <v>23</v>
       </c>
@@ -2585,11 +2582,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="2">
         <v>35</v>
       </c>
@@ -2601,11 +2598,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="2">
         <v>23</v>
       </c>
@@ -2617,11 +2614,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>13</v>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
@@ -2637,8 +2634,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2653,9 +2650,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -2671,8 +2668,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2687,9 +2684,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -2705,8 +2702,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
@@ -2721,14 +2718,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>300</v>
       </c>
       <c r="E13" s="2">
@@ -2739,12 +2736,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>300</v>
       </c>
       <c r="E14" s="2">
@@ -2752,11 +2749,6 @@
       </c>
       <c r="F14" s="3">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
